--- a/biology/Médecine/Philippe_Pibarot/Philippe_Pibarot.xlsx
+++ b/biology/Médecine/Philippe_Pibarot/Philippe_Pibarot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Pibarot, né à Toulon en 1964, est un cardiologue et chercheur français naturalisé canadien[1]. Après une formation initiale comme vétérinaire, il s'est intéressé à la cardiologie humaine et est devenu un chercheur de premier plan en cardiologie (sans être médecin)[2]. Philippe Pibarot pratique également l'escalade de glace dans ses temps libres[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Pibarot, né à Toulon en 1964, est un cardiologue et chercheur français naturalisé canadien. Après une formation initiale comme vétérinaire, il s'est intéressé à la cardiologie humaine et est devenu un chercheur de premier plan en cardiologie (sans être médecin). Philippe Pibarot pratique également l'escalade de glace dans ses temps libres,.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2017 - Docteur honoris causa de l'université de Liège[4]
-2010 - Prix d'excellence en recherche de la Société canadienne de cardiologie[5]
-2010 - Annual Achievement Award de la Canadian Society of Echocardiography[6]
-2006 - Prix André-Dupont du Club de recherches cliniques du Québec[1],[7]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2017 - Docteur honoris causa de l'université de Liège
+2010 - Prix d'excellence en recherche de la Société canadienne de cardiologie
+2010 - Annual Achievement Award de la Canadian Society of Echocardiography
+2006 - Prix André-Dupont du Club de recherches cliniques du Québec,</t>
         </is>
       </c>
     </row>
